--- a/winAsimilados/Resources/Formato_Masivo_Info_Caratula17.xlsx
+++ b/winAsimilados/Resources/Formato_Masivo_Info_Caratula17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aespejel\source\repos\winAsimilados\winAsimilados\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65C96F4-A35D-4851-836B-0339D24BFD2D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03F2A01-2C77-456C-A186-497DB2956A1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{7D684382-455D-490A-8956-2EC1B8E2E487}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7D684382-455D-490A-8956-2EC1B8E2E487}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
     <t># Empleado</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Quincenal</t>
+  </si>
+  <si>
+    <t>Mensual</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,10 +495,10 @@
         <v>320</v>
       </c>
       <c r="B3" s="6">
-        <v>4785.8500000000004</v>
+        <v>22785.85</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -504,10 +507,10 @@
         <v>321</v>
       </c>
       <c r="B4" s="6">
-        <v>5720.09</v>
+        <v>17720.09</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -519,7 +522,7 @@
         <v>23031.31</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -528,10 +531,10 @@
         <v>323</v>
       </c>
       <c r="B6" s="6">
-        <v>4721.55</v>
+        <v>14721.55</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3"/>
     </row>

--- a/winAsimilados/Resources/Formato_Masivo_Info_Caratula17.xlsx
+++ b/winAsimilados/Resources/Formato_Masivo_Info_Caratula17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aespejel\source\repos\winAsimilados\winAsimilados\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03F2A01-2C77-456C-A186-497DB2956A1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572290B9-2707-4818-829A-21283AD0E029}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7D684382-455D-490A-8956-2EC1B8E2E487}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +492,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B3" s="6">
         <v>22785.85</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B4" s="6">
         <v>17720.09</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B5" s="6">
         <v>23031.31</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B6" s="6">
         <v>14721.55</v>
@@ -539,6 +539,7 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">

--- a/winAsimilados/Resources/Formato_Masivo_Info_Caratula17.xlsx
+++ b/winAsimilados/Resources/Formato_Masivo_Info_Caratula17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aespejel\source\repos\winAsimilados\winAsimilados\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572290B9-2707-4818-829A-21283AD0E029}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86195FCF-0866-4C58-8D45-B3B81105A5F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7D684382-455D-490A-8956-2EC1B8E2E487}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t># Empleado</t>
   </si>
@@ -46,6 +46,42 @@
   </si>
   <si>
     <t>Mensual</t>
+  </si>
+  <si>
+    <t>185000.10</t>
+  </si>
+  <si>
+    <t>70684</t>
+  </si>
+  <si>
+    <t>115414</t>
+  </si>
+  <si>
+    <t>62914.20</t>
+  </si>
+  <si>
+    <t>24226.20</t>
+  </si>
+  <si>
+    <t>31700.20</t>
+  </si>
+  <si>
+    <t>34500.10</t>
+  </si>
+  <si>
+    <t>322800.10</t>
+  </si>
+  <si>
+    <t>50500.20</t>
+  </si>
+  <si>
+    <t>23140.79</t>
+  </si>
+  <si>
+    <t>42222.49</t>
+  </si>
+  <si>
+    <t>24000</t>
   </si>
 </sst>
 </file>
@@ -131,7 +167,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -140,11 +176,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -464,12 +501,13 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -477,7 +515,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -485,17 +523,23 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2"/>
+      <c r="A2" s="4">
+        <v>280</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>313</v>
-      </c>
-      <c r="B3" s="6">
-        <v>22785.85</v>
+      <c r="A3" s="4">
+        <v>281</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -503,11 +547,11 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>314</v>
-      </c>
-      <c r="B4" s="6">
-        <v>17720.09</v>
+      <c r="A4" s="4">
+        <v>282</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -515,11 +559,11 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>315</v>
-      </c>
-      <c r="B5" s="6">
-        <v>23031.31</v>
+      <c r="A5" s="4">
+        <v>283</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -527,11 +571,11 @@
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>316</v>
-      </c>
-      <c r="B6" s="6">
-        <v>14721.55</v>
+      <c r="A6" s="4">
+        <v>299</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -539,31 +583,111 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="4">
+        <v>286</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>287</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>284</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>290</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>292</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>293</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>294</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>295</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>304</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
       <c r="D15" s="3"/>
     </row>
   </sheetData>
@@ -586,10 +710,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6">
+      <c r="A1" s="4">
         <v>319</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="4">
         <v>5384.8</v>
       </c>
       <c r="C1" t="s">
@@ -597,10 +721,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>320</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>4785.8500000000004</v>
       </c>
       <c r="C2" t="s">
@@ -608,10 +732,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>321</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>5720.09</v>
       </c>
       <c r="C3" t="s">
@@ -619,10 +743,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>322</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>23031.31</v>
       </c>
       <c r="C4" t="s">
@@ -630,10 +754,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>323</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>4721.55</v>
       </c>
       <c r="C5" t="s">
